--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Dinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C418E4CE-F694-447A-8F91-D49115A95F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A1CB08-BBCF-4351-8115-96652B6C7D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhom1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="65">
   <si>
     <t>MSSV</t>
   </si>
@@ -215,13 +215,19 @@
   </si>
   <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>F0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +236,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -296,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -333,7 +354,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B91303-3FCC-46F0-AC17-35E7C1E5098E}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -659,54 +690,55 @@
     <col min="1" max="1" width="9.140625" style="12"/>
     <col min="2" max="2" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="16">
         <v>1</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="17">
         <v>2</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="17">
         <v>3</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="17">
         <v>4</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="17">
         <v>5</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="17">
         <v>6</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="17">
         <v>7</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="17">
         <v>8</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="17">
         <v>9</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="17">
         <v>10</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="17">
         <v>11</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="17">
         <v>12</v>
       </c>
     </row>
@@ -720,8 +752,12 @@
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -743,8 +779,12 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -766,8 +806,12 @@
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -789,6 +833,12 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
@@ -800,6 +850,12 @@
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="D6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
@@ -811,6 +867,12 @@
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="D7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
@@ -822,6 +884,12 @@
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
@@ -833,6 +901,12 @@
       <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
@@ -855,6 +929,12 @@
       <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="D11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
@@ -866,6 +946,12 @@
       <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
@@ -877,6 +963,12 @@
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="D13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
@@ -888,6 +980,12 @@
       <c r="C14" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="D14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
@@ -899,6 +997,12 @@
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="D15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
@@ -910,8 +1014,14 @@
       <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -921,8 +1031,14 @@
       <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -932,8 +1048,14 @@
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -944,7 +1066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -954,8 +1076,14 @@
       <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -965,8 +1093,14 @@
       <c r="C21" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -976,8 +1110,14 @@
       <c r="C22" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -987,8 +1127,14 @@
       <c r="C23" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -998,8 +1144,14 @@
       <c r="C24" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -1009,8 +1161,14 @@
       <c r="C25" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -1020,8 +1178,14 @@
       <c r="C26" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -1031,8 +1195,14 @@
       <c r="C27" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -1042,8 +1212,14 @@
       <c r="C28" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -1053,8 +1229,14 @@
       <c r="C29" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -1064,8 +1246,14 @@
       <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -1075,8 +1263,14 @@
       <c r="C31" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -1086,8 +1280,14 @@
       <c r="C32" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -1097,8 +1297,14 @@
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -1109,7 +1315,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1119,8 +1325,14 @@
       <c r="C35" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -1130,8 +1342,14 @@
       <c r="C36" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -1141,8 +1359,14 @@
       <c r="C37" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -1152,8 +1376,11 @@
       <c r="C38" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -1163,6 +1390,37 @@
       <c r="C39" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="D39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9">
+        <v>63130502</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1172,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B204EE-4B71-4158-A2BD-15903996C8DA}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1394,38 +1652,26 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
-        <v>63130502</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="B9" s="1">
+        <v>61130494</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>61130494</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
+      <c r="B10" s="3">
+        <v>63134557</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1433,10 +1679,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>63134557</v>
+        <v>63134380</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1444,10 +1690,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>63134380</v>
+        <v>63131383</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1455,10 +1701,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>63131383</v>
+        <v>63130982</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1466,10 +1712,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>63130982</v>
+        <v>63132525</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1477,10 +1723,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>63132525</v>
+        <v>63130757</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1488,10 +1734,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>63130757</v>
+        <v>63131653</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1499,10 +1745,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>63131653</v>
+        <v>63134047</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1510,10 +1756,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>63134047</v>
+        <v>63131375</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1521,10 +1767,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>63131375</v>
+        <v>63130300</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1532,10 +1778,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>63130300</v>
+        <v>63131117</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1543,10 +1789,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>63131117</v>
+        <v>63135925</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1554,20 +1800,9 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>63135925</v>
+        <v>63131257</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>63131257</v>
-      </c>
-      <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
     </row>

--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Dinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A1CB08-BBCF-4351-8115-96652B6C7D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3ECB52-391D-47D4-952B-841DD27C1DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhom1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="66">
   <si>
     <t>MSSV</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>F0</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Cẩm Tú</t>
   </si>
 </sst>
 </file>
@@ -317,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -331,7 +334,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -345,9 +347,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,6 +364,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,150 +683,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B91303-3FCC-46F0-AC17-35E7C1E5098E}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
     <col min="2" max="2" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="15" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="14">
         <v>1</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="15">
         <v>2</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="15">
         <v>3</v>
       </c>
-      <c r="G1" s="17">
+      <c r="G1" s="15">
         <v>4</v>
       </c>
-      <c r="H1" s="17">
+      <c r="H1" s="15">
         <v>5</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="15">
         <v>6</v>
       </c>
-      <c r="J1" s="17">
+      <c r="J1" s="15">
         <v>7</v>
       </c>
-      <c r="K1" s="17">
+      <c r="K1" s="15">
         <v>8</v>
       </c>
-      <c r="L1" s="17">
+      <c r="L1" s="15">
         <v>9</v>
       </c>
-      <c r="M1" s="17">
+      <c r="M1" s="15">
         <v>10</v>
       </c>
-      <c r="N1" s="17">
+      <c r="N1" s="15">
         <v>11</v>
       </c>
-      <c r="O1" s="17">
+      <c r="O1" s="15">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+    <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>63132331</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="D2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>63135253</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="D3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>63135477</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="D4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -833,15 +835,15 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="3">
@@ -850,15 +852,15 @@
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -867,15 +869,15 @@
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="3">
@@ -884,15 +886,15 @@
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="3">
@@ -901,15 +903,15 @@
       <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="3">
@@ -920,7 +922,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="3">
@@ -929,15 +931,15 @@
       <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="3">
@@ -946,15 +948,15 @@
       <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="3">
@@ -963,15 +965,15 @@
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="3">
@@ -980,15 +982,15 @@
       <c r="C14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="3">
@@ -997,15 +999,15 @@
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="3">
@@ -1014,15 +1016,15 @@
       <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="3">
@@ -1031,15 +1033,15 @@
       <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="3">
@@ -1048,15 +1050,15 @@
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="3">
@@ -1067,7 +1069,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="3">
@@ -1076,15 +1078,15 @@
       <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="3">
@@ -1093,15 +1095,15 @@
       <c r="C21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="3">
@@ -1110,15 +1112,15 @@
       <c r="C22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="3">
@@ -1127,15 +1129,15 @@
       <c r="C23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="3">
@@ -1144,15 +1146,15 @@
       <c r="C24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
       <c r="B25" s="3">
@@ -1161,15 +1163,15 @@
       <c r="C25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="B26" s="3">
@@ -1178,15 +1180,15 @@
       <c r="C26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="3">
@@ -1195,15 +1197,15 @@
       <c r="C27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="B28" s="3">
@@ -1212,15 +1214,15 @@
       <c r="C28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="3">
@@ -1229,15 +1231,15 @@
       <c r="C29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="3">
@@ -1246,15 +1248,15 @@
       <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="D30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="3">
@@ -1263,15 +1265,15 @@
       <c r="C31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="D31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="3">
@@ -1280,15 +1282,15 @@
       <c r="C32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="3">
@@ -1297,15 +1299,15 @@
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="B34" s="3">
@@ -1316,7 +1318,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="3">
@@ -1325,15 +1327,15 @@
       <c r="C35" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="D35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
       <c r="B36" s="3">
@@ -1342,15 +1344,15 @@
       <c r="C36" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
       <c r="B37" s="3">
@@ -1359,15 +1361,15 @@
       <c r="C37" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="D37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
       <c r="B38" s="3">
@@ -1376,12 +1378,12 @@
       <c r="C38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
       <c r="B39" s="3">
@@ -1390,37 +1392,37 @@
       <c r="C39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+      <c r="D39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>63130502</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1430,230 +1432,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B204EE-4B71-4158-A2BD-15903996C8DA}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
     <col min="2" max="2" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" style="4" customWidth="1"/>
-    <col min="4" max="15" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="15">
         <v>1</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="15">
         <v>2</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="15">
         <v>3</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="15">
         <v>4</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="15">
         <v>5</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="15">
         <v>6</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="15">
         <v>7</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="15">
         <v>8</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="15">
         <v>9</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="15">
         <v>10</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="15">
         <v>11</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="15">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+    <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>63134878</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="D2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>63133750</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="D3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>63136385</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="D4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>63136363</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="D5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>63135470</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="D6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>63134524</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="D7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>63135760</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="D8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -1662,9 +1679,12 @@
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D9" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="3">
@@ -1673,9 +1693,12 @@
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="3">
@@ -1684,9 +1707,12 @@
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D11" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="3">
@@ -1695,9 +1721,12 @@
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D12" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="3">
@@ -1706,9 +1735,12 @@
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D13" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="3">
@@ -1717,9 +1749,12 @@
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="D14" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="3">
@@ -1728,9 +1763,12 @@
       <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="3">
@@ -1739,9 +1777,12 @@
       <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="D16" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="3">
@@ -1750,9 +1791,12 @@
       <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="D17" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="3">
@@ -1761,9 +1805,12 @@
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="D18" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="3">
@@ -1772,9 +1819,12 @@
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="D19" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="3">
@@ -1783,9 +1833,12 @@
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="D20" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="3">
@@ -1794,9 +1847,12 @@
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="D21" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="3">
@@ -1805,8 +1861,26 @@
       <c r="C22" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="D22" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>63139003</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Dinh\Desktop\tinhocb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3ECB52-391D-47D4-952B-841DD27C1DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB79DCA1-2D8D-4B51-9800-462D84F179DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="66">
   <si>
     <t>MSSV</t>
   </si>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B91303-3FCC-46F0-AC17-35E7C1E5098E}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -760,7 +760,9 @@
       <c r="E2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -787,7 +789,9 @@
       <c r="E3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -814,7 +818,9 @@
       <c r="E4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -841,6 +847,9 @@
       <c r="E5" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F5" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
@@ -858,6 +867,9 @@
       <c r="E6" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F6" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
@@ -875,6 +887,9 @@
       <c r="E7" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F7" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
@@ -892,6 +907,9 @@
       <c r="E8" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F8" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
@@ -909,6 +927,9 @@
       <c r="E9" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F9" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
@@ -920,6 +941,9 @@
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F10" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
@@ -937,6 +961,9 @@
       <c r="E11" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F11" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
@@ -954,6 +981,9 @@
       <c r="E12" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
@@ -971,6 +1001,9 @@
       <c r="E13" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F13" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
@@ -988,6 +1021,9 @@
       <c r="E14" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F14" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
@@ -1005,6 +1041,9 @@
       <c r="E15" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F15" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -1022,8 +1061,11 @@
       <c r="E16" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1039,8 +1081,11 @@
       <c r="E17" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1056,8 +1101,11 @@
       <c r="E18" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1067,8 +1115,11 @@
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1084,8 +1135,11 @@
       <c r="E20" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1101,8 +1155,11 @@
       <c r="E21" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1118,8 +1175,11 @@
       <c r="E22" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1135,8 +1195,11 @@
       <c r="E23" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1152,8 +1215,11 @@
       <c r="E24" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1169,8 +1235,11 @@
       <c r="E25" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1186,8 +1255,11 @@
       <c r="E26" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -1203,8 +1275,11 @@
       <c r="E27" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -1220,8 +1295,11 @@
       <c r="E28" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -1237,8 +1315,11 @@
       <c r="E29" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -1254,8 +1335,11 @@
       <c r="E30" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -1271,8 +1355,11 @@
       <c r="E31" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -1286,6 +1373,9 @@
         <v>64</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1305,6 +1395,9 @@
       <c r="E33" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
@@ -1316,6 +1409,9 @@
       <c r="C34" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="F34" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
@@ -1333,6 +1429,9 @@
       <c r="E35" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F35" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
@@ -1350,6 +1449,9 @@
       <c r="E36" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F36" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
@@ -1367,6 +1469,9 @@
       <c r="E37" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F37" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
@@ -1381,6 +1486,9 @@
       <c r="D38" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="F38" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
@@ -1398,6 +1506,9 @@
       <c r="E39" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F39" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
@@ -1413,7 +1524,9 @@
       <c r="E40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -1435,7 +1548,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1507,7 +1620,9 @@
       <c r="D2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1532,7 +1647,9 @@
       <c r="D3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -1557,7 +1674,9 @@
       <c r="D4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1582,7 +1701,9 @@
       <c r="D5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -1607,7 +1728,9 @@
       <c r="D6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -1657,7 +1780,9 @@
       <c r="D8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1682,6 +1807,9 @@
       <c r="D9" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
@@ -1724,6 +1852,9 @@
       <c r="D12" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="E12" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -1738,6 +1869,9 @@
       <c r="D13" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="E13" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -1752,6 +1886,9 @@
       <c r="D14" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="E14" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
@@ -1766,6 +1903,9 @@
       <c r="D15" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -1780,8 +1920,11 @@
       <c r="D16" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1794,8 +1937,11 @@
       <c r="D17" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1808,8 +1954,11 @@
       <c r="D18" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1823,7 +1972,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1836,8 +1985,11 @@
       <c r="D20" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1850,8 +2002,11 @@
       <c r="D21" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1864,8 +2019,11 @@
       <c r="D22" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>

--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB79DCA1-2D8D-4B51-9800-462D84F179DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43705AEB-7600-41B9-8F3F-9472EFE77051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="67">
   <si>
     <t>MSSV</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Nguyễn Hoàng Cẩm Tú</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -1547,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B204EE-4B71-4158-A2BD-15903996C8DA}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1623,7 +1626,9 @@
       <c r="E2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1650,7 +1655,9 @@
       <c r="E3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1677,7 +1684,9 @@
       <c r="E4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1704,7 +1713,9 @@
       <c r="E5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1731,7 +1742,9 @@
       <c r="E6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1783,7 +1796,9 @@
       <c r="E8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1810,6 +1825,9 @@
       <c r="E9" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
@@ -1838,6 +1856,9 @@
       <c r="D11" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="F11" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
@@ -1855,6 +1876,9 @@
       <c r="E12" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="F12" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -1872,6 +1896,9 @@
       <c r="E13" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="F13" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -1889,6 +1916,9 @@
       <c r="E14" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
@@ -1906,6 +1936,9 @@
       <c r="E15" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -1923,8 +1956,11 @@
       <c r="E16" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1940,8 +1976,11 @@
       <c r="E17" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1958,7 +1997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1971,8 +2010,11 @@
       <c r="D19" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1989,7 +2031,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -2005,8 +2047,11 @@
       <c r="E21" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -2022,8 +2067,11 @@
       <c r="E22" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>

--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43705AEB-7600-41B9-8F3F-9472EFE77051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200A07E4-CA4B-4FC1-A728-C2F6785A8E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhom1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="67">
   <si>
     <t>MSSV</t>
   </si>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B91303-3FCC-46F0-AC17-35E7C1E5098E}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -696,8 +696,7 @@
     <col min="2" max="2" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -763,18 +762,22 @@
       <c r="E2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="F2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
@@ -792,18 +795,22 @@
       <c r="E3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="F3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
@@ -821,18 +828,22 @@
       <c r="E4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
@@ -850,7 +861,10 @@
       <c r="E5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -870,7 +884,13 @@
       <c r="E6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -890,7 +910,13 @@
       <c r="E7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -910,7 +936,13 @@
       <c r="E8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -930,7 +962,13 @@
       <c r="E9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -944,7 +982,10 @@
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -964,7 +1005,13 @@
       <c r="E11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -984,7 +1031,13 @@
       <c r="E12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1004,7 +1057,13 @@
       <c r="E13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1024,7 +1083,10 @@
       <c r="E14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1044,7 +1106,13 @@
       <c r="E15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1064,11 +1132,14 @@
       <c r="E16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1084,11 +1155,17 @@
       <c r="E17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1104,11 +1181,14 @@
       <c r="E18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1118,11 +1198,14 @@
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1138,11 +1221,17 @@
       <c r="E20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1158,11 +1247,17 @@
       <c r="E21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1178,11 +1273,17 @@
       <c r="E22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1198,11 +1299,17 @@
       <c r="E23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1218,11 +1325,17 @@
       <c r="E24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1238,11 +1351,17 @@
       <c r="E25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1258,11 +1377,14 @@
       <c r="E26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -1278,11 +1400,17 @@
       <c r="E27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -1298,11 +1426,17 @@
       <c r="E28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -1318,11 +1452,17 @@
       <c r="E29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -1338,11 +1478,17 @@
       <c r="E30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -1358,11 +1504,14 @@
       <c r="E31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -1378,7 +1527,13 @@
       <c r="E32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1398,7 +1553,10 @@
       <c r="E33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1412,7 +1570,10 @@
       <c r="C34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1432,7 +1593,10 @@
       <c r="E35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1452,7 +1616,10 @@
       <c r="E36" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1472,7 +1639,10 @@
       <c r="E37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1489,7 +1659,10 @@
       <c r="D38" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1509,7 +1682,13 @@
       <c r="E39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1523,22 +1702,26 @@
       <c r="C40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="F40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1550,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B204EE-4B71-4158-A2BD-15903996C8DA}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1559,8 +1742,7 @@
     <col min="1" max="1" width="9.140625" style="10"/>
     <col min="2" max="2" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -1623,21 +1805,25 @@
       <c r="D2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="E2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
@@ -1652,21 +1838,23 @@
       <c r="D3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
@@ -1681,21 +1869,25 @@
       <c r="D4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="E4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
@@ -1710,21 +1902,25 @@
       <c r="D5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="E5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
@@ -1739,21 +1935,25 @@
       <c r="D6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="E6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -1768,17 +1968,17 @@
       <c r="D7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
@@ -1793,21 +1993,23 @@
       <c r="D8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="E8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -1822,10 +2024,10 @@
       <c r="D9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1856,7 +2058,13 @@
       <c r="D11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1873,10 +2081,13 @@
       <c r="D12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1893,10 +2104,13 @@
       <c r="D13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1913,10 +2127,10 @@
       <c r="D14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1933,10 +2147,16 @@
       <c r="D15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1953,14 +2173,20 @@
       <c r="D16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1973,14 +2199,20 @@
       <c r="D17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1993,11 +2225,14 @@
       <c r="D18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -2010,11 +2245,17 @@
       <c r="D19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -2027,11 +2268,14 @@
       <c r="D20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -2044,14 +2288,20 @@
       <c r="D21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -2064,14 +2314,20 @@
       <c r="D22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -2082,6 +2338,9 @@
         <v>65</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>63</v>
       </c>
     </row>

--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200A07E4-CA4B-4FC1-A728-C2F6785A8E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C8DB37-4650-497E-A532-1855F0FC7566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="67">
   <si>
     <t>MSSV</t>
   </si>
@@ -263,7 +263,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -370,6 +376,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,7 +706,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1158,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1165,7 +1184,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1188,7 +1207,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1205,7 +1224,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1231,7 +1250,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1257,7 +1276,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1283,85 +1302,112 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+    <row r="23" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="19">
         <v>63135259</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="D23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="19">
         <v>63131068</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="D24" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="19">
         <v>63133260</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D25" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1384,7 +1430,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -1410,7 +1456,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -1436,7 +1482,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -1462,7 +1508,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -1488,7 +1534,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -1511,7 +1557,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>

--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C8DB37-4650-497E-A532-1855F0FC7566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA9496B-2A0F-4DC5-BE92-F1E05EE7CCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="67">
   <si>
     <t>MSSV</t>
   </si>
@@ -233,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +259,19 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -329,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -389,6 +402,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B91303-3FCC-46F0-AC17-35E7C1E5098E}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -715,7 +734,8 @@
     <col min="2" max="2" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -761,7 +781,7 @@
       <c r="N1" s="15">
         <v>11</v>
       </c>
-      <c r="O1" s="15">
+      <c r="O1" s="24">
         <v>12</v>
       </c>
     </row>
@@ -790,13 +810,15 @@
       <c r="H2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
@@ -823,13 +845,15 @@
       <c r="H3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
@@ -856,13 +880,15 @@
       <c r="H4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
@@ -912,6 +938,9 @@
       <c r="H6" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I6" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
@@ -938,6 +967,9 @@
       <c r="H7" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
@@ -964,6 +996,9 @@
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I8" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
@@ -990,6 +1025,9 @@
       <c r="H9" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I9" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
@@ -1033,6 +1071,9 @@
       <c r="H11" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I11" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
@@ -1059,6 +1100,9 @@
       <c r="H12" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I12" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
@@ -1108,6 +1152,12 @@
       <c r="G14" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="H14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
@@ -1157,6 +1207,9 @@
       <c r="G16" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="I16" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
@@ -1183,6 +1236,9 @@
       <c r="H17" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I17" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
@@ -1206,6 +1262,9 @@
       <c r="G18" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="I18" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
@@ -1249,6 +1308,9 @@
       <c r="H20" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I20" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
@@ -1275,6 +1337,9 @@
       <c r="H21" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I21" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
@@ -1299,6 +1364,9 @@
         <v>63</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1335,7 +1403,7 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
+      <c r="O23" s="23"/>
     </row>
     <row r="24" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
@@ -1370,7 +1438,7 @@
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
+      <c r="O24" s="23"/>
     </row>
     <row r="25" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -1405,7 +1473,7 @@
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
+      <c r="O25" s="23"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
@@ -1429,6 +1497,12 @@
       <c r="G26" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="H26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
@@ -1455,6 +1529,9 @@
       <c r="H27" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I27" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
@@ -1507,6 +1584,9 @@
       <c r="H29" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I29" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
@@ -1533,6 +1613,9 @@
       <c r="H30" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I30" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
@@ -1582,6 +1665,9 @@
       <c r="H32" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I32" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
@@ -1711,6 +1797,12 @@
       <c r="G38" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="H38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
@@ -1737,6 +1829,9 @@
       <c r="H39" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I39" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
@@ -1761,13 +1856,15 @@
       <c r="H40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
+      <c r="O40" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1779,7 +1876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B204EE-4B71-4158-A2BD-15903996C8DA}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>

--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA9496B-2A0F-4DC5-BE92-F1E05EE7CCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2148A631-664F-43A7-8246-154151ACEEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhom1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="67">
   <si>
     <t>MSSV</t>
   </si>
@@ -342,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -406,6 +406,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -724,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B91303-3FCC-46F0-AC17-35E7C1E5098E}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -1876,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B204EE-4B71-4158-A2BD-15903996C8DA}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1885,7 +1888,8 @@
     <col min="1" max="1" width="9.140625" style="10"/>
     <col min="2" max="2" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" style="4" customWidth="1"/>
-    <col min="4" max="15" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -1931,7 +1935,7 @@
       <c r="N1" s="15">
         <v>11</v>
       </c>
-      <c r="O1" s="15">
+      <c r="O1" s="25">
         <v>12</v>
       </c>
     </row>
@@ -1960,13 +1964,15 @@
       <c r="H2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
@@ -1991,13 +1997,15 @@
         <v>63</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
@@ -2024,13 +2032,15 @@
       <c r="H4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
@@ -2057,13 +2067,15 @@
       <c r="H5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
@@ -2090,13 +2102,15 @@
       <c r="H6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="O6" s="21"/>
     </row>
     <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -2121,7 +2135,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="O7" s="21"/>
     </row>
     <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
@@ -2146,13 +2160,15 @@
         <v>63</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="O8" s="21"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -2233,6 +2249,9 @@
       <c r="G12" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I12" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -2256,6 +2275,9 @@
       <c r="G13" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I13" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -2302,6 +2324,9 @@
       <c r="H15" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="I15" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -2328,8 +2353,11 @@
       <c r="H16" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2354,8 +2382,11 @@
       <c r="H17" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2374,8 +2405,11 @@
       <c r="H18" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -2397,8 +2431,11 @@
       <c r="H19" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -2418,7 +2455,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -2443,8 +2480,11 @@
       <c r="H21" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -2469,8 +2509,11 @@
       <c r="H22" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -2484,6 +2527,9 @@
         <v>63</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>63</v>
       </c>
     </row>

--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2148A631-664F-43A7-8246-154151ACEEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F356902E-8D27-48C0-A753-E8E391602419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhom1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="67">
   <si>
     <t>MSSV</t>
   </si>
@@ -342,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -411,6 +411,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B91303-3FCC-46F0-AC17-35E7C1E5098E}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -739,9 +741,10 @@
     <col min="4" max="4" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="14" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>62</v>
       </c>
@@ -787,8 +790,12 @@
       <c r="O1" s="24">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+    </row>
+    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -822,8 +829,12 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+    </row>
+    <row r="3" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -857,8 +868,12 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="23"/>
-    </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+    </row>
+    <row r="4" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -892,8 +907,12 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="23"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -916,7 +935,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -945,7 +964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -974,7 +993,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1003,7 +1022,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1032,7 +1051,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1049,7 +1068,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1078,7 +1097,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1107,7 +1126,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1133,7 +1152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1162,7 +1181,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1188,7 +1207,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1214,7 +1233,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1243,7 +1262,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1269,7 +1288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1286,7 +1305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1315,7 +1334,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1344,7 +1363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1373,7 +1392,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -1401,14 +1420,20 @@
       <c r="I23" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
       <c r="O23" s="23"/>
-    </row>
-    <row r="24" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+    </row>
+    <row r="24" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -1436,14 +1461,20 @@
       <c r="I24" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="23"/>
-    </row>
-    <row r="25" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+    </row>
+    <row r="25" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -1471,14 +1502,20 @@
       <c r="I25" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="21"/>
+      <c r="J25" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="23"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1507,7 +1544,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -1536,33 +1573,48 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+    <row r="28" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="19">
         <v>63131092</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -1591,7 +1643,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -1620,30 +1672,46 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+    <row r="31" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="19">
         <v>63131073</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D31" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -1672,30 +1740,46 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+    <row r="33" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="19">
         <v>63135555</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D33" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -1712,53 +1796,85 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+    <row r="35" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="19">
         <v>63135190</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="D35" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+    </row>
+    <row r="36" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="19">
         <v>63134861</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D36" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -1780,8 +1896,14 @@
       <c r="G37" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -1807,7 +1929,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -1836,7 +1958,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -1868,6 +1990,10 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="23"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1879,7 +2005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B204EE-4B71-4158-A2BD-15903996C8DA}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>

--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F356902E-8D27-48C0-A753-E8E391602419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CB3726-889D-4429-A9A9-9FF9086F2F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
@@ -16,17 +16,25 @@
     <sheet name="Nhom1" sheetId="1" r:id="rId1"/>
     <sheet name="Nhom2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="67">
   <si>
     <t>MSSV</t>
   </si>
@@ -276,7 +284,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -413,6 +427,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B91303-3FCC-46F0-AC17-35E7C1E5098E}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1393,123 +1422,129 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+      <c r="A23" s="28">
         <v>22</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="29">
         <v>63135259</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="23"/>
+      <c r="D23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
     </row>
     <row r="24" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="A24" s="28">
         <v>23</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="29">
         <v>63131068</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="23"/>
+      <c r="D24" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="32"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
     </row>
     <row r="25" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="A25" s="28">
         <v>24</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="29">
         <v>63133260</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="23"/>
+      <c r="D25" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="32"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
       <c r="R25" s="27"/>
@@ -1604,7 +1639,9 @@
       <c r="J28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="K28" s="21"/>
+      <c r="K28" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
@@ -1701,7 +1738,9 @@
       <c r="J31" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="K31" s="21"/>
+      <c r="K31" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
@@ -1769,7 +1808,9 @@
       <c r="J33" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="21"/>
+      <c r="K33" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
@@ -1825,7 +1866,9 @@
       <c r="J35" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="K35" s="21"/>
+      <c r="K35" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
@@ -1874,34 +1917,42 @@
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+    <row r="37" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="19">
         <v>63132143</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="D37" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="23"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
@@ -2005,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B204EE-4B71-4158-A2BD-15903996C8DA}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2093,7 +2144,9 @@
       <c r="I2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -2126,7 +2179,9 @@
       <c r="I3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -2161,7 +2216,9 @@
       <c r="I4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -2196,7 +2253,9 @@
       <c r="I5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -2231,7 +2290,9 @@
       <c r="I6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -2352,6 +2413,9 @@
       <c r="H11" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J11" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
@@ -2378,6 +2442,9 @@
       <c r="I12" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J12" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -2404,6 +2471,9 @@
       <c r="I13" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J13" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -2453,6 +2523,9 @@
       <c r="I15" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J15" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -2482,8 +2555,11 @@
       <c r="I16" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2511,8 +2587,11 @@
       <c r="I17" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2534,8 +2613,11 @@
       <c r="I18" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -2560,8 +2642,11 @@
       <c r="I19" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -2580,8 +2665,11 @@
       <c r="H20" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -2609,8 +2697,11 @@
       <c r="I21" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -2638,8 +2729,11 @@
       <c r="I22" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>

--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CB3726-889D-4429-A9A9-9FF9086F2F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F95377-6E6E-4A1F-92B6-24DE1CF078DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="67">
   <si>
     <t>MSSV</t>
   </si>
@@ -241,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +282,13 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -356,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -442,6 +449,23 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B91303-3FCC-46F0-AC17-35E7C1E5098E}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -852,8 +876,12 @@
       <c r="I2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -891,8 +919,12 @@
       <c r="I3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -930,7 +962,9 @@
       <c r="I4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -963,6 +997,12 @@
       <c r="G5" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="J5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
@@ -992,6 +1032,12 @@
       <c r="I6" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="J6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
@@ -1021,6 +1067,12 @@
       <c r="I7" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
@@ -1050,6 +1102,12 @@
       <c r="I8" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
@@ -1079,6 +1137,12 @@
       <c r="I9" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
@@ -1096,6 +1160,9 @@
       <c r="G10" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="J10" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
@@ -1125,6 +1192,12 @@
       <c r="I11" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
@@ -1154,6 +1227,12 @@
       <c r="I12" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
@@ -1180,6 +1259,12 @@
       <c r="H13" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
@@ -1209,32 +1294,55 @@
       <c r="I14" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="J14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="34">
         <v>63130955</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="D15" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -1261,6 +1369,12 @@
       <c r="I16" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
@@ -1290,6 +1404,12 @@
       <c r="I17" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
@@ -1316,6 +1436,12 @@
       <c r="I18" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
@@ -1333,6 +1459,9 @@
       <c r="G19" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="J19" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
@@ -1362,6 +1491,9 @@
       <c r="I20" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J20" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
@@ -1391,6 +1523,12 @@
       <c r="I21" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
@@ -1418,6 +1556,12 @@
         <v>63</v>
       </c>
       <c r="I22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1578,6 +1722,12 @@
       <c r="I26" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
@@ -1605,6 +1755,12 @@
         <v>63</v>
       </c>
       <c r="I27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1679,6 +1835,12 @@
       <c r="I29" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
@@ -1706,6 +1868,12 @@
         <v>63</v>
       </c>
       <c r="I30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1778,6 +1946,12 @@
       <c r="I32" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="33" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -1835,6 +2009,9 @@
       </c>
       <c r="G34" s="5" t="s">
         <v>63</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -1979,6 +2156,9 @@
       <c r="I38" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J38" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
@@ -2008,6 +2188,9 @@
       <c r="I39" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="J39" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="40" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
@@ -2035,8 +2218,12 @@
       <c r="I40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="J40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>

--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F95377-6E6E-4A1F-92B6-24DE1CF078DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A360DC-02E6-45EA-AA9F-C64D0A8284BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="67">
   <si>
     <t>MSSV</t>
   </si>
@@ -291,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -466,6 +472,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,7 +795,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1599,7 +1611,9 @@
       <c r="K23" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="31"/>
+      <c r="L23" s="31" t="s">
+        <v>63</v>
+      </c>
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
       <c r="O23" s="32"/>
@@ -1642,7 +1656,9 @@
       <c r="K24" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="L24" s="31"/>
+      <c r="L24" s="31" t="s">
+        <v>63</v>
+      </c>
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
       <c r="O24" s="32"/>
@@ -1685,7 +1701,9 @@
       <c r="K25" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="31"/>
+      <c r="L25" s="31" t="s">
+        <v>63</v>
+      </c>
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
       <c r="O25" s="32"/>
@@ -1798,7 +1816,9 @@
       <c r="K28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="21"/>
+      <c r="L28" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="23"/>
@@ -1909,7 +1929,9 @@
       <c r="K31" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="21"/>
+      <c r="L31" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
       <c r="O31" s="23"/>
@@ -1985,7 +2007,9 @@
       <c r="K33" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="21"/>
+      <c r="L33" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="23"/>
@@ -2046,7 +2070,9 @@
       <c r="K35" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="L35" s="21"/>
+      <c r="L35" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
       <c r="O35" s="23"/>
@@ -2085,7 +2111,9 @@
         <v>63</v>
       </c>
       <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
+      <c r="L36" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
       <c r="O36" s="23"/>
@@ -2126,39 +2154,49 @@
       <c r="K37" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="L37" s="21"/>
+      <c r="L37" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
       <c r="O37" s="23"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+    <row r="38" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="19">
         <v>63131932</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="23"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
@@ -2243,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B204EE-4B71-4158-A2BD-15903996C8DA}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2252,8 +2290,9 @@
     <col min="1" max="1" width="9.140625" style="10"/>
     <col min="2" max="2" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" style="4" customWidth="1"/>
-    <col min="4" max="14" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -2296,7 +2335,7 @@
       <c r="M1" s="15">
         <v>10</v>
       </c>
-      <c r="N1" s="15">
+      <c r="N1" s="40">
         <v>11</v>
       </c>
       <c r="O1" s="25">
@@ -2334,10 +2373,12 @@
       <c r="J2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2372,7 +2413,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2406,10 +2447,12 @@
       <c r="J4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2443,10 +2486,12 @@
       <c r="J5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2480,10 +2525,12 @@
       <c r="J6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="21"/>
     </row>
     <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2508,7 +2555,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="21"/>
     </row>
     <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2537,11 +2584,15 @@
       <c r="I8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="21"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2603,6 +2654,9 @@
       <c r="J11" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="K11" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
@@ -2632,6 +2686,9 @@
       <c r="J12" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="K12" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -2661,6 +2718,9 @@
       <c r="J13" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="K13" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -2713,6 +2773,9 @@
       <c r="J15" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="K15" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -2745,8 +2808,11 @@
       <c r="J16" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2777,8 +2843,11 @@
       <c r="J17" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2803,8 +2872,11 @@
       <c r="J18" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -2832,8 +2904,11 @@
       <c r="J19" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -2855,8 +2930,11 @@
       <c r="J20" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -2888,7 +2966,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -2919,8 +2997,11 @@
       <c r="J22" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -2937,6 +3018,9 @@
         <v>63</v>
       </c>
       <c r="I23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>63</v>
       </c>
     </row>

--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A360DC-02E6-45EA-AA9F-C64D0A8284BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288A8341-34E4-4B24-A2A5-722E298C1EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="67">
   <si>
     <t>MSSV</t>
   </si>
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B91303-3FCC-46F0-AC17-35E7C1E5098E}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -894,7 +894,9 @@
       <c r="K2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="23"/>
@@ -937,7 +939,9 @@
       <c r="K3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="23"/>
@@ -978,7 +982,9 @@
         <v>66</v>
       </c>
       <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="23"/>
@@ -1015,6 +1021,9 @@
       <c r="K5" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="L5" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
@@ -1050,6 +1059,9 @@
       <c r="K6" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="L6" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
@@ -1085,6 +1097,9 @@
       <c r="K7" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="L7" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
@@ -1120,6 +1135,9 @@
       <c r="K8" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="L8" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
@@ -1155,6 +1173,9 @@
       <c r="K9" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="L9" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
@@ -1210,6 +1231,9 @@
       <c r="K11" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="L11" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
@@ -1277,6 +1301,9 @@
       <c r="K13" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="L13" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
@@ -1310,6 +1337,9 @@
         <v>66</v>
       </c>
       <c r="K14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1387,6 +1417,9 @@
       <c r="K16" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="L16" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
@@ -1506,6 +1539,12 @@
       <c r="J20" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="K20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
@@ -1541,6 +1580,9 @@
       <c r="K21" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="L21" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
@@ -1574,6 +1616,9 @@
         <v>66</v>
       </c>
       <c r="K22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1746,6 +1791,9 @@
       <c r="K26" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="L26" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
@@ -2229,6 +2277,12 @@
       <c r="J39" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="K39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="40" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
@@ -2262,7 +2316,9 @@
       <c r="K40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L40" s="6"/>
+      <c r="L40" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="23"/>

--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288A8341-34E4-4B24-A2A5-722E298C1EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCCB193-147D-411D-8CE5-1156CAC4B271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="67">
   <si>
     <t>MSSV</t>
   </si>
@@ -795,7 +795,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1867,7 +1867,9 @@
       <c r="L28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="M28" s="21"/>
+      <c r="M28" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="N28" s="21"/>
       <c r="O28" s="23"/>
       <c r="P28" s="27"/>
@@ -1980,7 +1982,9 @@
       <c r="L31" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="M31" s="21"/>
+      <c r="M31" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="N31" s="21"/>
       <c r="O31" s="23"/>
       <c r="P31" s="27"/>
@@ -2058,7 +2062,9 @@
       <c r="L33" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="M33" s="21"/>
+      <c r="M33" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="N33" s="21"/>
       <c r="O33" s="23"/>
       <c r="P33" s="27"/>
@@ -2121,7 +2127,9 @@
       <c r="L35" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="M35" s="21"/>
+      <c r="M35" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="N35" s="21"/>
       <c r="O35" s="23"/>
       <c r="P35" s="27"/>
@@ -2205,7 +2213,9 @@
       <c r="L37" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="M37" s="21"/>
+      <c r="M37" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="N37" s="21"/>
       <c r="O37" s="23"/>
     </row>
@@ -2337,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B204EE-4B71-4158-A2BD-15903996C8DA}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2348,7 +2358,7 @@
     <col min="3" max="3" width="36.5703125" style="4" customWidth="1"/>
     <col min="4" max="13" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -2432,7 +2442,9 @@
       <c r="K2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="M2" s="6"/>
       <c r="N2" s="41"/>
       <c r="O2" s="21"/>
@@ -2467,7 +2479,9 @@
         <v>63</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="M3" s="6"/>
       <c r="N3" s="41"/>
       <c r="O3" s="21"/>
@@ -2506,7 +2520,9 @@
       <c r="K4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="41"/>
       <c r="O4" s="21"/>
@@ -2545,7 +2561,9 @@
       <c r="K5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="41"/>
       <c r="O5" s="21"/>
@@ -2584,7 +2602,9 @@
       <c r="K6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="41"/>
       <c r="O6" s="21"/>
@@ -2646,7 +2666,9 @@
       <c r="K8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="41"/>
       <c r="O8" s="21"/>
@@ -2670,6 +2692,9 @@
       <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="L9" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
@@ -2713,6 +2738,9 @@
       <c r="K11" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="L11" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
@@ -2745,6 +2773,9 @@
       <c r="K12" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="L12" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -2777,6 +2808,9 @@
       <c r="K13" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="L13" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -2832,6 +2866,9 @@
       <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="L15" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -2867,8 +2904,11 @@
       <c r="K16" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2902,8 +2942,11 @@
       <c r="K17" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2931,8 +2974,11 @@
       <c r="K18" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -2963,8 +3009,11 @@
       <c r="K19" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -2989,8 +3038,11 @@
       <c r="K20" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -3021,8 +3073,11 @@
       <c r="J21" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -3056,8 +3111,11 @@
       <c r="K22" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -3077,6 +3135,9 @@
         <v>63</v>
       </c>
       <c r="K23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>63</v>
       </c>
     </row>

--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCCB193-147D-411D-8CE5-1156CAC4B271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C5C524-0BAA-4602-B8FD-973A52D16B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="67">
   <si>
     <t>MSSV</t>
   </si>
@@ -795,7 +795,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -897,7 +897,9 @@
       <c r="L2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N2" s="6"/>
       <c r="O2" s="23"/>
       <c r="P2" s="27"/>
@@ -942,7 +944,9 @@
       <c r="L3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="23"/>
       <c r="P3" s="27"/>
@@ -985,7 +989,9 @@
       <c r="L4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="23"/>
       <c r="P4" s="27"/>
@@ -1024,6 +1030,9 @@
       <c r="L5" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M5" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
@@ -1062,6 +1071,9 @@
       <c r="L6" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M6" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
@@ -1100,6 +1112,9 @@
       <c r="L7" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M7" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
@@ -1138,6 +1153,9 @@
       <c r="L8" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M8" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
@@ -1176,6 +1194,9 @@
       <c r="L9" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M9" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
@@ -1196,6 +1217,9 @@
       <c r="J10" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="M10" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
@@ -1234,6 +1258,9 @@
       <c r="L11" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M11" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
@@ -1269,6 +1296,9 @@
       <c r="K12" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
@@ -1304,6 +1334,9 @@
       <c r="L13" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M13" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
@@ -1342,6 +1375,9 @@
       <c r="L14" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M14" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
@@ -1376,7 +1412,9 @@
         <v>63</v>
       </c>
       <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
+      <c r="M15" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N15" s="37"/>
       <c r="O15" s="23"/>
       <c r="P15" s="38">
@@ -1420,6 +1458,9 @@
       <c r="L16" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M16" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
@@ -1455,6 +1496,9 @@
       <c r="K17" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M17" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
@@ -1487,6 +1531,9 @@
       <c r="K18" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M18" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
@@ -1507,6 +1554,9 @@
       <c r="J19" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="M19" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
@@ -1545,6 +1595,9 @@
       <c r="L20" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M20" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
@@ -1583,6 +1636,9 @@
       <c r="L21" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M21" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
@@ -1621,6 +1677,9 @@
       <c r="L22" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M22" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="23" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
@@ -1659,7 +1718,9 @@
       <c r="L23" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="31"/>
+      <c r="M23" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N23" s="31"/>
       <c r="O23" s="32"/>
       <c r="P23" s="27"/>
@@ -1704,7 +1765,9 @@
       <c r="L24" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="31"/>
+      <c r="M24" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N24" s="31"/>
       <c r="O24" s="32"/>
       <c r="P24" s="27"/>
@@ -1749,7 +1812,9 @@
       <c r="L25" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="31"/>
+      <c r="M25" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N25" s="31"/>
       <c r="O25" s="32"/>
       <c r="P25" s="27"/>
@@ -1794,6 +1859,9 @@
       <c r="L26" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M26" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
@@ -1827,6 +1895,9 @@
         <v>66</v>
       </c>
       <c r="K27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1911,6 +1982,9 @@
       <c r="K29" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M29" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
@@ -1944,6 +2018,9 @@
         <v>66</v>
       </c>
       <c r="K30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2026,6 +2103,9 @@
       <c r="K32" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M32" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="33" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -2091,6 +2171,9 @@
       <c r="J34" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="M34" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="35" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
@@ -2170,7 +2253,9 @@
       <c r="L36" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="M36" s="21"/>
+      <c r="M36" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="N36" s="21"/>
       <c r="O36" s="23"/>
       <c r="P36" s="27"/>
@@ -2252,7 +2337,9 @@
       <c r="L38" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="M38" s="21"/>
+      <c r="M38" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="N38" s="21"/>
       <c r="O38" s="23"/>
     </row>
@@ -2293,6 +2380,9 @@
       <c r="L39" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M39" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="40" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
@@ -2329,7 +2419,9 @@
       <c r="L40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M40" s="6"/>
+      <c r="M40" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N40" s="6"/>
       <c r="O40" s="23"/>
       <c r="P40" s="27"/>

--- a/diemdanh63TCNH-2.xlsx
+++ b/diemdanh63TCNH-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C5C524-0BAA-4602-B8FD-973A52D16B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519E43BD-6D2B-486F-9A6D-2434C938F700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{221840CE-D1A3-4C6B-B156-DFB4B2B2C94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhom1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="67">
   <si>
     <t>MSSV</t>
   </si>
@@ -794,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B91303-3FCC-46F0-AC17-35E7C1E5098E}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
@@ -2439,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B204EE-4B71-4158-A2BD-15903996C8DA}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2537,7 +2537,9 @@
       <c r="L2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N2" s="41"/>
       <c r="O2" s="21"/>
     </row>
@@ -2574,7 +2576,9 @@
       <c r="L3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N3" s="41"/>
       <c r="O3" s="21"/>
     </row>
@@ -2615,7 +2619,9 @@
       <c r="L4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N4" s="41"/>
       <c r="O4" s="21"/>
     </row>
@@ -2656,7 +2662,9 @@
       <c r="L5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N5" s="41"/>
       <c r="O5" s="21"/>
     </row>
@@ -2697,7 +2705,9 @@
       <c r="L6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N6" s="41"/>
       <c r="O6" s="21"/>
     </row>
@@ -2722,7 +2732,9 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="M7" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N7" s="41"/>
       <c r="O7" s="21"/>
     </row>
@@ -2761,7 +2773,9 @@
       <c r="L8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N8" s="41"/>
       <c r="O8" s="21"/>
     </row>
@@ -2787,6 +2801,9 @@
       <c r="L9" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M9" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
@@ -2801,6 +2818,9 @@
       <c r="D10" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="M10" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
@@ -2833,6 +2853,9 @@
       <c r="L11" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M11" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
@@ -2868,6 +2891,9 @@
       <c r="L12" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -2903,6 +2929,9 @@
       <c r="L13" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M13" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -2923,6 +2952,9 @@
       <c r="F14" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M14" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
@@ -2961,6 +2993,9 @@
       <c r="L15" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="M15" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -2999,8 +3034,11 @@
       <c r="L16" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -3037,8 +3075,11 @@
       <c r="L17" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -3069,8 +3110,11 @@
       <c r="L18" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -3104,8 +3148,11 @@
       <c r="L19" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -3133,8 +3180,11 @@
       <c r="L20" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -3168,8 +3218,11 @@
       <c r="L21" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -3206,8 +3259,11 @@
       <c r="L22" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -3230,6 +3286,9 @@
         <v>63</v>
       </c>
       <c r="L23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>63</v>
       </c>
     </row>
